--- a/data/student_choices.xlsx
+++ b/data/student_choices.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kapoi\Downloads\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travaux\Projets\Python\satisfier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614203E4-6ADE-4A01-A48E-F64A01DC68BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543E9160-EB93-4FC7-B8F1-A1258F60DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{6E0D0479-9FE1-4FD5-8B5D-BF6FD94AA413}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{6E0D0479-9FE1-4FD5-8B5D-BF6FD94AA413}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,36 +20,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>choice1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>choice2</t>
   </si>
   <si>
-    <t>choice3</t>
-  </si>
-  <si>
     <t>Emma Martin</t>
   </si>
   <si>
@@ -78,6 +58,99 @@
   </si>
   <si>
     <t>Lana Bernard</t>
+  </si>
+  <si>
+    <t>Ivann</t>
+  </si>
+  <si>
+    <t>Solene</t>
+  </si>
+  <si>
+    <t>Sandrine</t>
+  </si>
+  <si>
+    <t>Christelle</t>
+  </si>
+  <si>
+    <t>Lolita</t>
+  </si>
+  <si>
+    <t>Gaby</t>
+  </si>
+  <si>
+    <t>Flo</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Jeremy</t>
+  </si>
+  <si>
+    <t>Edgar</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>NOAH</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Natahna</t>
+  </si>
+  <si>
+    <t>Sohan</t>
+  </si>
+  <si>
+    <t>Timeo</t>
+  </si>
+  <si>
+    <t>Nael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Théo </t>
+  </si>
+  <si>
+    <t>Momo</t>
+  </si>
+  <si>
+    <t>Antoine M</t>
+  </si>
+  <si>
+    <t>Oumar</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Kyky</t>
+  </si>
+  <si>
+    <t>Etahn</t>
+  </si>
+  <si>
+    <t>Natha</t>
+  </si>
+  <si>
+    <t>Lenny</t>
+  </si>
+  <si>
+    <t>Gwendal</t>
+  </si>
+  <si>
+    <t>Baptiste</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Choix 1</t>
   </si>
 </sst>
 </file>
@@ -449,34 +522,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286395CD-ABC1-408A-AF04-2D0C6852A2DA}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -484,13 +554,10 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -498,120 +565,412 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/student_choices.xlsx
+++ b/data/student_choices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travaux\Projets\Python\satisfier\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543E9160-EB93-4FC7-B8F1-A1258F60DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE7952C-5834-42BD-BCA3-5EE03D2F51D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{6E0D0479-9FE1-4FD5-8B5D-BF6FD94AA413}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{6E0D0479-9FE1-4FD5-8B5D-BF6FD94AA413}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>choice2</t>
-  </si>
-  <si>
     <t>Emma Martin</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Choix 1</t>
+  </si>
+  <si>
+    <t>Choix 2</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,18 +535,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -601,7 +601,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>5</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>3</v>
